--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3657940715844793</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.318907206072631</v>
+        <v>-1.320762927196176</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1675892040827583</v>
+        <v>-0.1648078124695772</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1295126099199504</v>
+        <v>-0.1276714892773145</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3896848548867307</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388582161018885</v>
+        <v>-1.388720865587521</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.235542762329831</v>
+        <v>-0.2325438235511045</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1338547929423128</v>
+        <v>-0.1328619602404949</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4173323261448271</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492404720715312</v>
+        <v>-1.491835301959857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2817430640704549</v>
+        <v>-0.2796522752042737</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1387284334697661</v>
+        <v>-0.13762609716113</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4238076805645712</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.645109690495361</v>
+        <v>-1.642621768548453</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.292071444265543</v>
+        <v>-0.2910873718522706</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1490553536167633</v>
+        <v>-0.1483370099560362</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4030670151960224</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.739469678514609</v>
+        <v>-1.736895613730337</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2911457737759069</v>
+        <v>-0.2897295271277255</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1667277757091222</v>
+        <v>-0.1673482961477584</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3626857143263845</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.579944824101924</v>
+        <v>-1.577410180616107</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2238944986605614</v>
+        <v>-0.222765881486289</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1732950720220295</v>
+        <v>-0.1752500764157563</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3166436140358217</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.421041950175967</v>
+        <v>-1.42033966704424</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1476712280265818</v>
+        <v>-0.1455191171405824</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1530704858667622</v>
+        <v>-0.1537829893351257</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2735751336468193</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151154980667676</v>
+        <v>-1.15067900499004</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005958960322983531</v>
+        <v>-0.00319946943116609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1301973724745865</v>
+        <v>-0.1318413866249497</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.233735837263787</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7799946954296848</v>
+        <v>-0.7811685740947754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08034886247490239</v>
+        <v>0.08270976023790175</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1168963343664083</v>
+        <v>-0.1188630191448623</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1919980084077769</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4047550358256946</v>
+        <v>-0.4083657347545118</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1229194846615273</v>
+        <v>0.1275390768211624</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07322921606351092</v>
+        <v>-0.07443667583469242</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1431996376664877</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06420803082990671</v>
+        <v>0.05941761304363528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.136405948877251</v>
+        <v>0.1403363983379772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0278163321640074</v>
+        <v>0.02715639042691667</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08172814173415992</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6045324079767617</v>
+        <v>0.5991711113869449</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05630333046572703</v>
+        <v>0.0603272230042714</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1793503433751485</v>
+        <v>0.17723181359524</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.00462825906190975</v>
       </c>
       <c r="E14" t="n">
-        <v>1.168846835305337</v>
+        <v>1.162399262935885</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09046946392096084</v>
+        <v>-0.08791875990614334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3082010474459321</v>
+        <v>0.3060460164637508</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08957379922913732</v>
       </c>
       <c r="E15" t="n">
-        <v>1.8161124348708</v>
+        <v>1.81060221337571</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.258554580290643</v>
+        <v>-0.2583487135098249</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4893973956719744</v>
+        <v>0.4879373475810657</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2012891881446468</v>
       </c>
       <c r="E16" t="n">
-        <v>2.443903912999722</v>
+        <v>2.43674967735427</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4955963079458521</v>
+        <v>-0.4957875742457611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6071502742037609</v>
+        <v>0.6050390446643069</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.33206940040059</v>
       </c>
       <c r="E17" t="n">
-        <v>3.055078583806013</v>
+        <v>3.047411871280651</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6302492431299068</v>
+        <v>-0.6295980616813616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7934421902670745</v>
+        <v>0.7917923359243477</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4768746177062906</v>
       </c>
       <c r="E18" t="n">
-        <v>3.655919034224851</v>
+        <v>3.645422748499309</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7534524811850556</v>
+        <v>-0.7526085733885103</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9353588647034</v>
+        <v>0.9349967727768547</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6282488079702405</v>
       </c>
       <c r="E19" t="n">
-        <v>4.189912642849526</v>
+        <v>4.179753628232984</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9115727693342858</v>
+        <v>-0.9111362149551041</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087812706211814</v>
+        <v>1.087145464234268</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7808780948234426</v>
       </c>
       <c r="E20" t="n">
-        <v>4.733189237236198</v>
+        <v>4.723256530073747</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.126656833750319</v>
+        <v>-1.125287308641047</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247009049804044</v>
+        <v>1.246556434895862</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9257405659388768</v>
       </c>
       <c r="E21" t="n">
-        <v>5.19325185072962</v>
+        <v>5.181986119660169</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.283209030249913</v>
+        <v>-1.28180592403455</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423176992404996</v>
+        <v>1.422406087012997</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.052894914658226</v>
       </c>
       <c r="E22" t="n">
-        <v>5.597229636906967</v>
+        <v>5.58714508474306</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.490470156994858</v>
+        <v>-1.488973607701676</v>
       </c>
       <c r="G22" t="n">
-        <v>1.538751479185147</v>
+        <v>1.538903324186602</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.153846855712884</v>
       </c>
       <c r="E23" t="n">
-        <v>5.869054090231893</v>
+        <v>5.857979625462351</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.670524747613809</v>
+        <v>-1.667814898357083</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699805003949013</v>
+        <v>1.699264786155377</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.225731265430281</v>
       </c>
       <c r="E24" t="n">
-        <v>6.173807008151084</v>
+        <v>6.163617332524632</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.843093671670672</v>
+        <v>-1.840780955494673</v>
       </c>
       <c r="G24" t="n">
-        <v>1.81331644277671</v>
+        <v>1.814373517594528</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.268661495030807</v>
       </c>
       <c r="E25" t="n">
-        <v>6.386100920665391</v>
+        <v>6.377429695053484</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.978618255564999</v>
+        <v>-1.976142014002818</v>
       </c>
       <c r="G25" t="n">
-        <v>1.915935922846228</v>
+        <v>1.917579936996591</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.28404745341978</v>
       </c>
       <c r="E26" t="n">
-        <v>6.485458653299819</v>
+        <v>6.477778800341639</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.085346310962334</v>
+        <v>-2.083619804094835</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980107956537847</v>
+        <v>1.981442440492937</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.274686568031308</v>
       </c>
       <c r="E27" t="n">
-        <v>6.538851151936259</v>
+        <v>6.531374245662716</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.173168203630492</v>
+        <v>-2.172154930255402</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062279463094189</v>
+        <v>2.063945377965915</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.243394689600927</v>
       </c>
       <c r="E28" t="n">
-        <v>6.649308170157775</v>
+        <v>6.642502886006049</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232422795351931</v>
+        <v>-2.232526458766386</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092336013093635</v>
+        <v>2.09372597887618</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.194363479732596</v>
       </c>
       <c r="E29" t="n">
-        <v>6.586470620421246</v>
+        <v>6.579944205454884</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293000920667779</v>
+        <v>-2.293223578001642</v>
       </c>
       <c r="G29" t="n">
-        <v>2.138326067909168</v>
+        <v>2.140616883363804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.132392434409109</v>
       </c>
       <c r="E30" t="n">
-        <v>6.55316838351571</v>
+        <v>6.544538039250348</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328282982784587</v>
+        <v>-2.329110100028087</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122778015789081</v>
+        <v>2.125445523651171</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.062612674757757</v>
       </c>
       <c r="E31" t="n">
-        <v>6.46407478896037</v>
+        <v>6.45596130171919</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.309885646815092</v>
+        <v>-2.311318684016319</v>
       </c>
       <c r="G31" t="n">
-        <v>2.105250138457722</v>
+        <v>2.109338273112267</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9889978520291846</v>
       </c>
       <c r="E32" t="n">
-        <v>6.288740533819326</v>
+        <v>6.281941089859965</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.315580564393681</v>
+        <v>-2.317069083422363</v>
       </c>
       <c r="G32" t="n">
-        <v>2.042469530596739</v>
+        <v>2.045791140003557</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9155571928993435</v>
       </c>
       <c r="E33" t="n">
-        <v>6.105279651004285</v>
+        <v>6.096269694235287</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.33804851444063</v>
+        <v>-2.34098905129572</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977019954825575</v>
+        <v>1.979475755714483</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8440856666320772</v>
       </c>
       <c r="E34" t="n">
-        <v>5.866304819676713</v>
+        <v>5.858436620514805</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381547727213073</v>
+        <v>-2.382249280320754</v>
       </c>
       <c r="G34" t="n">
-        <v>1.893454102342416</v>
+        <v>1.896818053143869</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7758128704288254</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6413245493005</v>
+        <v>5.633256323550139</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369228571446031</v>
+        <v>-2.370273235855076</v>
       </c>
       <c r="G35" t="n">
-        <v>1.825113631351252</v>
+        <v>1.828554964701524</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.711312256674322</v>
       </c>
       <c r="E36" t="n">
-        <v>5.451598600127369</v>
+        <v>5.443851584957008</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330456264367905</v>
+        <v>-2.330373771650768</v>
       </c>
       <c r="G36" t="n">
-        <v>1.737196835557185</v>
+        <v>1.741209047711002</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6503800524065406</v>
       </c>
       <c r="E37" t="n">
-        <v>5.089589896323194</v>
+        <v>5.08278753226765</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270430767254466</v>
+        <v>-2.271181231973193</v>
       </c>
       <c r="G37" t="n">
-        <v>1.650068465732208</v>
+        <v>1.652820656383571</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5932535185722936</v>
       </c>
       <c r="E38" t="n">
-        <v>4.815089174847631</v>
+        <v>4.806768360777542</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165476670287585</v>
+        <v>-2.164996314465677</v>
       </c>
       <c r="G38" t="n">
-        <v>1.550345721075053</v>
+        <v>1.551303512622689</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5386952282943748</v>
       </c>
       <c r="E39" t="n">
-        <v>4.521299758043074</v>
+        <v>4.512562830267075</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.147607871726999</v>
+        <v>-2.146868357368954</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438619921062538</v>
+        <v>1.438917770873083</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4866076488109275</v>
       </c>
       <c r="E40" t="n">
-        <v>4.252923938308873</v>
+        <v>4.244690727124238</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118665338420916</v>
+        <v>-2.118157971709326</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382538013842644</v>
+        <v>1.384698885017188</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4351827550243389</v>
       </c>
       <c r="E41" t="n">
-        <v>3.958292073755861</v>
+        <v>3.951571472393408</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.02893516289794</v>
+        <v>-2.028387644863849</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262238811440312</v>
+        <v>1.263990869149403</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3840540449495322</v>
       </c>
       <c r="E42" t="n">
-        <v>3.70378233074102</v>
+        <v>3.698072082657476</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.934202862615511</v>
+        <v>-1.933876541867193</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157365017118431</v>
+        <v>1.158909747998613</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3323058677567178</v>
       </c>
       <c r="E43" t="n">
-        <v>3.433178477620093</v>
+        <v>3.426617021499549</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.866678558507166</v>
+        <v>-1.865898162802575</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064451936757274</v>
+        <v>1.065487110853729</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2796164252353148</v>
       </c>
       <c r="E44" t="n">
-        <v>3.165031885436165</v>
+        <v>3.15808351657153</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.826411892207995</v>
+        <v>-1.825993588429949</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9307670134574922</v>
+        <v>0.9311802070672194</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2270829721193698</v>
       </c>
       <c r="E45" t="n">
-        <v>2.907234114120598</v>
+        <v>2.9001835418896</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743185500905972</v>
+        <v>-1.743903844566699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.810259024178161</v>
+        <v>0.8116343894797969</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.174710086241017</v>
       </c>
       <c r="E46" t="n">
-        <v>2.65833679596721</v>
+        <v>2.652610487354666</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694927991405257</v>
+        <v>-1.696275615793166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7694769609028992</v>
+        <v>0.7702055249002626</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1235373308055008</v>
       </c>
       <c r="E47" t="n">
-        <v>2.358418097277018</v>
+        <v>2.352271294814293</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648040007013815</v>
+        <v>-1.649435812988724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6626058207926552</v>
+        <v>0.6638293410928366</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.07341110681495298</v>
       </c>
       <c r="E48" t="n">
-        <v>2.166868548038342</v>
+        <v>2.161479510534798</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613813559666734</v>
+        <v>-1.615094021842461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.60040047187949</v>
+        <v>0.6013860043408534</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02487283154838903</v>
       </c>
       <c r="E49" t="n">
-        <v>1.969338641819304</v>
+        <v>1.96375687796776</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.565158917085292</v>
+        <v>-1.567141662392746</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5393135198039609</v>
+        <v>0.5404946987095061</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.02163544081979575</v>
       </c>
       <c r="E50" t="n">
-        <v>1.857151466610062</v>
+        <v>1.852969888877699</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.492149212299403</v>
+        <v>-1.49444294785022</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4780426016689774</v>
+        <v>0.4792617418248862</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.06540706909608771</v>
       </c>
       <c r="E51" t="n">
-        <v>1.680297301406382</v>
+        <v>1.675612007082656</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.434620397421418</v>
+        <v>-1.438016469280872</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4201210338545384</v>
+        <v>0.4206831523695383</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1061819628233042</v>
       </c>
       <c r="E52" t="n">
-        <v>1.561866960560414</v>
+        <v>1.557286789699233</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.394818026415156</v>
+        <v>-1.398713434721701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3391394664922874</v>
+        <v>0.3399643936636508</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1445163359306661</v>
       </c>
       <c r="E53" t="n">
-        <v>1.384634642901188</v>
+        <v>1.381510139986644</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.357252449084166</v>
+        <v>-1.360430973778074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2724313292667599</v>
+        <v>0.2727116585002144</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1809862516559001</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332261257832203</v>
+        <v>1.327538002258113</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.338419288759535</v>
+        <v>-1.341467869173352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2206609440593192</v>
+        <v>0.2224801639805915</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2166242744378059</v>
       </c>
       <c r="E55" t="n">
-        <v>1.209585097137872</v>
+        <v>1.206475194704236</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.302313759519454</v>
+        <v>-1.304613335262635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1645001942425162</v>
+        <v>0.1637628699566073</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2516284034917597</v>
       </c>
       <c r="E56" t="n">
-        <v>1.179404443050698</v>
+        <v>1.175739722342517</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.249446878195741</v>
+        <v>-1.25269110505374</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1043067915986232</v>
+        <v>0.1026656975444419</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2859890981665908</v>
       </c>
       <c r="E57" t="n">
-        <v>1.088531049872541</v>
+        <v>1.084074983099087</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.241152344991288</v>
+        <v>-1.24337307813756</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06091416233681669</v>
+        <v>0.05905552111708992</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3199717161147712</v>
       </c>
       <c r="E58" t="n">
-        <v>1.034820260752283</v>
+        <v>1.029791855127193</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.203534205929025</v>
+        <v>-1.205636675179934</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01599971104416265</v>
+        <v>-0.01838980976898019</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3526692501752441</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9261926827886753</v>
+        <v>0.9215497298595856</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.119670503635321</v>
+        <v>-1.122213907409684</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09247410994977848</v>
+        <v>-0.09491823045395964</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3840641726699904</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9020347270764999</v>
+        <v>0.8950323364325018</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.100584754990962</v>
+        <v>-1.102790887656325</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.119395936698044</v>
+        <v>-0.1221510474455887</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4131735517479134</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7692681740258992</v>
+        <v>0.7626059745870828</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.070862556004334</v>
+        <v>-1.07379725266706</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.148325329571309</v>
+        <v>-0.1517038808536717</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4400152321939192</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7296585293676371</v>
+        <v>0.7237015331567296</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.065688145570153</v>
+        <v>-1.06857466064588</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2234024624539251</v>
+        <v>-0.2257472996879245</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4639372056870701</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6387135938330252</v>
+        <v>0.632303982713936</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.100295665468962</v>
+        <v>-1.103002594629507</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2384351175979211</v>
+        <v>-0.2412734510866476</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4849348713771168</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5490549606665038</v>
+        <v>0.5404362967858698</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.086467549999966</v>
+        <v>-1.089530730894693</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2889265006777257</v>
+        <v>-0.2927897879262701</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.50303790697949</v>
       </c>
       <c r="E65" t="n">
-        <v>0.463896195716163</v>
+        <v>0.4544175635099837</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.054199027142793</v>
+        <v>-1.057066561593338</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3215556554133533</v>
+        <v>-0.326359213632443</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5182905822962099</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4152327928461761</v>
+        <v>0.4063878215114512</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.06982738190788</v>
+        <v>-1.072310923710515</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3501185762158002</v>
+        <v>-0.3547191877502535</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5301444837918425</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3866304507452747</v>
+        <v>0.3763049906463684</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.088234208189966</v>
+        <v>-1.091268188122874</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3835186363434276</v>
+        <v>-0.3895705356802441</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5377412697087196</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3072972776776596</v>
+        <v>0.2964841615163898</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.10356909328878</v>
+        <v>-1.10580296686787</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3939287792316066</v>
+        <v>-0.3989352841353326</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5402703137643882</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2028965389372331</v>
+        <v>0.1912234544504181</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144967296858405</v>
+        <v>-1.146412744468404</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4171712847907822</v>
+        <v>-0.4231355812421442</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5363722494030796</v>
       </c>
       <c r="E70" t="n">
-        <v>0.139571333138341</v>
+        <v>0.1282282195200714</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192919656308119</v>
+        <v>-1.194432266130301</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4341428837995049</v>
+        <v>-0.4394632990427762</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5250902897057127</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08882298159453647</v>
+        <v>0.07901437851981183</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279319462135732</v>
+        <v>-1.279034752758005</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4946093154363978</v>
+        <v>-0.4991383846143966</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5060655339064121</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002268410669286987</v>
+        <v>-0.008695090445346432</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315445432049086</v>
+        <v>-1.315271686326268</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4887808034574903</v>
+        <v>-0.4931755482111254</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.480839996917921</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01128375571052756</v>
+        <v>-0.0220165692267974</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.30555360623318</v>
+        <v>-1.305641209118634</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5387947508115677</v>
+        <v>-0.5431369338339302</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4505563324183973</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01877425433700983</v>
+        <v>0.008388932266376253</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345843633301806</v>
+        <v>-1.346078701044442</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5242176306719353</v>
+        <v>-0.5272997921918435</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4166915589151588</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02423775429319018</v>
+        <v>0.01344069866092035</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396152510370247</v>
+        <v>-1.395588931807156</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4750548913548576</v>
+        <v>-0.4787619534576747</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3808202932752241</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07563290714126729</v>
+        <v>0.06576006195054267</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342285496104261</v>
+        <v>-1.342095689852443</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4854971553010366</v>
+        <v>-0.4893692028381265</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3443376865766669</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1888275155332369</v>
+        <v>0.1787254427922396</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340569939597443</v>
+        <v>-1.34022682829608</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4312695091565966</v>
+        <v>-0.4347707044785957</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3085377741801746</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2732533363419415</v>
+        <v>0.2650215852053983</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306540598742634</v>
+        <v>-1.306060242920725</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4327412376322325</v>
+        <v>-0.4353007019355955</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2736089272002262</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3652261457325532</v>
+        <v>0.3580938108084641</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.321469590472176</v>
+        <v>-1.32398233323663</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4010041722801502</v>
+        <v>-0.4034322322553314</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2398085466982516</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4676178582998893</v>
+        <v>0.4624711887794362</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337702405146899</v>
+        <v>-1.338468930394626</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3429833211955294</v>
+        <v>-0.3447266186160744</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2061911797241861</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5661258429454084</v>
+        <v>0.5624333813235002</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285778714889913</v>
+        <v>-1.286130586479822</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2917151925313614</v>
+        <v>-0.292937252783452</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1719541584082182</v>
       </c>
       <c r="E82" t="n">
-        <v>0.701867974005281</v>
+        <v>0.6999669913909178</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.220562746813294</v>
+        <v>-1.222235961925475</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2584333962990976</v>
+        <v>-0.2597547398213699</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1372294382432103</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8572156308298756</v>
+        <v>0.8565221079866939</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164631224546763</v>
+        <v>-1.164940754742036</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2152991955493819</v>
+        <v>-0.2164307328198361</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1027526537144919</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026347601680739</v>
+        <v>1.026725754136285</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.073668768435061</v>
+        <v>-1.074689342050606</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1656371197852134</v>
+        <v>-0.1648194928543045</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06932225115938359</v>
       </c>
       <c r="E85" t="n">
-        <v>1.120202413060532</v>
+        <v>1.122814439095168</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.002656409437534</v>
+        <v>-1.004884442824261</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1314311131114044</v>
+        <v>-0.1307040091621318</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03747219600023217</v>
       </c>
       <c r="E86" t="n">
-        <v>1.285252089449215</v>
+        <v>1.289546090884578</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9263090347158273</v>
+        <v>-0.9286918332001903</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04656581782733626</v>
+        <v>-0.04548976238433655</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.009239932264074947</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383227156541553</v>
+        <v>1.386707911190279</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8262125177473997</v>
+        <v>-0.8286288973378535</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01733419499925321</v>
+        <v>-0.0161252751799808</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01337311680611521</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470380347184075</v>
+        <v>1.474236334192164</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6988904840277975</v>
+        <v>-0.7002132875981607</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03387845183746032</v>
+        <v>0.03525965733145995</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02781889848613921</v>
       </c>
       <c r="E89" t="n">
-        <v>1.567864838117867</v>
+        <v>1.571856609598411</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5668262141089239</v>
+        <v>-0.569190031968105</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07958963746762986</v>
+        <v>0.08051092781299325</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03312919378921927</v>
       </c>
       <c r="E90" t="n">
-        <v>1.62788303499085</v>
+        <v>1.633165488983758</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4385653694668674</v>
+        <v>-0.4398283110655034</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09260012600571728</v>
+        <v>0.09412149611644414</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03020723773623228</v>
       </c>
       <c r="E91" t="n">
-        <v>1.671877204066111</v>
+        <v>1.678174391482201</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2784856967796376</v>
+        <v>-0.2810626816600915</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1067830331608044</v>
+        <v>0.1088095799109857</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01998857623390141</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70155122146574</v>
+        <v>1.707950612248193</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1195930431903166</v>
+        <v>-0.1204909727662255</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1036687505828961</v>
+        <v>0.1039446996720779</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.004369468041518631</v>
       </c>
       <c r="E93" t="n">
-        <v>1.697861679940013</v>
+        <v>1.704107765672921</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03850972438182271</v>
+        <v>0.03861776794054995</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09932364746435184</v>
+        <v>0.09974414131453355</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01287964835491586</v>
       </c>
       <c r="E94" t="n">
-        <v>1.646194958147027</v>
+        <v>1.652854237489662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1481885369708842</v>
+        <v>0.1496354446289747</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06021333925318052</v>
+        <v>0.06049804863090771</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02849244061550837</v>
       </c>
       <c r="E95" t="n">
-        <v>1.555974206465506</v>
+        <v>1.563654059423686</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2328114642718614</v>
+        <v>0.2349037131861336</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01176602350064807</v>
+        <v>0.01185654648228441</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04083259791730682</v>
       </c>
       <c r="E96" t="n">
-        <v>1.432941794036994</v>
+        <v>1.440058068432083</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3121548576761128</v>
+        <v>0.314407711880385</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02820571308415937</v>
+        <v>-0.02875615121443196</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04924639399179792</v>
       </c>
       <c r="E97" t="n">
-        <v>1.278400083758581</v>
+        <v>1.285858009406942</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3620403207981904</v>
+        <v>0.3634770081196446</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04882159212779021</v>
+        <v>-0.0496596597319718</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05577335203272415</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14605110446198</v>
+        <v>1.152342451685705</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3814399797820943</v>
+        <v>0.3824342725320031</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08599149642614386</v>
+        <v>-0.08703105066687085</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06124514215356537</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9924409048655666</v>
+        <v>0.9971305793335653</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3766700026690956</v>
+        <v>0.377589832966368</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1263632861878603</v>
+        <v>-0.1274685425926782</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06951384919478809</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8846178134000501</v>
+        <v>0.8879876043938674</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3462747215125582</v>
+        <v>0.3467492371421036</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1407900213741291</v>
+        <v>-0.1422179484070379</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08024840561732557</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7444794775384513</v>
+        <v>0.7463410388543599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3477143289301942</v>
+        <v>0.3475595638325579</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1333218753891312</v>
+        <v>-0.1344577928038581</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09923746679985175</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6306599685635728</v>
+        <v>0.6334851616194811</v>
       </c>
       <c r="F102" t="n">
-        <v>0.305083844771842</v>
+        <v>0.3048385566925694</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945037305905693</v>
+        <v>-0.1945300114562056</v>
       </c>
     </row>
   </sheetData>
